--- a/final_data_pipeline/output/322110_kraft_elec.xlsx
+++ b/final_data_pipeline/output/322110_kraft_elec.xlsx
@@ -792,7 +792,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -813,10 +813,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R5">
-        <v>1.800714285714286</v>
+        <v>1.975772235794973</v>
       </c>
       <c r="S5">
-        <v>1.963947368421052</v>
+        <v>2.177153507468733</v>
       </c>
       <c r="T5">
         <v>10.84733831532546</v>
@@ -851,7 +851,7 @@
         <v>49</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -866,10 +866,10 @@
         <v>147576.5701483236</v>
       </c>
       <c r="R6">
-        <v>1.280428571428571</v>
+        <v>1.352319749654237</v>
       </c>
       <c r="S6">
-        <v>1.342878787878788</v>
+        <v>1.423118895050623</v>
       </c>
       <c r="T6">
         <v>18.44707126854045</v>
@@ -904,7 +904,7 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -1122,7 +1122,7 @@
         <v>70</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1143,10 +1143,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R11">
-        <v>1.800714285714286</v>
+        <v>1.847705673092716</v>
       </c>
       <c r="S11">
-        <v>1.963947368421052</v>
+        <v>2.020749367497032</v>
       </c>
       <c r="T11">
         <v>90.99833177426738</v>
@@ -1181,7 +1181,7 @@
         <v>49</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1196,10 +1196,10 @@
         <v>1238019.99182531</v>
       </c>
       <c r="R12">
-        <v>1.280428571428571</v>
+        <v>1.300269876134972</v>
       </c>
       <c r="S12">
-        <v>1.342878787878788</v>
+        <v>1.364969709970879</v>
       </c>
       <c r="T12">
         <v>154.7524989781637</v>
@@ -1234,7 +1234,7 @@
         <v>50</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1281,7 +1281,7 @@
         <v>50</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1328,7 +1328,7 @@
         <v>49</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1343,10 +1343,10 @@
         <v>1817801.447711399</v>
       </c>
       <c r="R15">
-        <v>1.280428571428571</v>
+        <v>1.304077921028169</v>
       </c>
       <c r="S15">
-        <v>1.342878787878788</v>
+        <v>1.369214264257821</v>
       </c>
       <c r="T15">
         <v>227.2251809639249</v>
@@ -1387,7 +1387,7 @@
         <v>70</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1408,10 +1408,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R16">
-        <v>1.800714285714286</v>
+        <v>1.856836936506854</v>
       </c>
       <c r="S16">
-        <v>1.963947368421052</v>
+        <v>2.031823338122968</v>
       </c>
       <c r="T16">
         <v>133.6140775842387</v>
@@ -1446,7 +1446,7 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>12.92654320987656</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1461,10 +1461,10 @@
         <v>1454870.092303158</v>
       </c>
       <c r="R17">
-        <v>1.280428571428571</v>
+        <v>1.302205489329493</v>
       </c>
       <c r="S17">
-        <v>1.342878787878788</v>
+        <v>1.367127007643996</v>
       </c>
       <c r="T17">
         <v>181.8587615378948</v>
@@ -1499,7 +1499,7 @@
         <v>50</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>12.92654320987656</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1552,7 +1552,7 @@
         <v>70</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>12.92654320987656</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1573,10 +1573,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R19">
-        <v>1.800714285714286</v>
+        <v>1.852342479090948</v>
       </c>
       <c r="S19">
-        <v>1.963947368421052</v>
+        <v>2.026371187792892</v>
       </c>
       <c r="T19">
         <v>106.9374906883917</v>
@@ -1617,7 +1617,7 @@
         <v>70</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1638,10 +1638,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R20">
-        <v>1.800714285714286</v>
+        <v>1.626775542720574</v>
       </c>
       <c r="S20">
-        <v>1.963947368421052</v>
+        <v>1.756382654173023</v>
       </c>
       <c r="T20">
         <v>143.8382082628356</v>
@@ -1676,7 +1676,7 @@
         <v>50</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1723,7 +1723,7 @@
         <v>49</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -1738,10 +1738,10 @@
         <v>1956899.362281267</v>
       </c>
       <c r="R22">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="S22">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="T22">
         <v>244.6124202851584</v>
@@ -1776,7 +1776,7 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1791,10 +1791,10 @@
         <v>2899569.172373784</v>
       </c>
       <c r="R23">
-        <v>1.280428571428571</v>
+        <v>1.302881541082627</v>
       </c>
       <c r="S23">
-        <v>1.342878787878788</v>
+        <v>1.367880580392128</v>
       </c>
       <c r="T23">
         <v>362.446146546723</v>
@@ -1829,7 +1829,7 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1882,7 +1882,7 @@
         <v>70</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -1903,10 +1903,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R25">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="S25">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="T25">
         <v>213.1273802461655</v>
@@ -2106,7 +2106,7 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2159,7 +2159,7 @@
         <v>70</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L30">
         <v>8000</v>
@@ -2180,10 +2180,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R30">
-        <v>1.800714285714286</v>
+        <v>1.672133966590239</v>
       </c>
       <c r="S30">
-        <v>1.963947368421052</v>
+        <v>1.810106000718649</v>
       </c>
       <c r="T30">
         <v>147.3449140348732</v>
@@ -2218,7 +2218,7 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2233,10 +2233,10 @@
         <v>2004607.619856812</v>
       </c>
       <c r="R31">
-        <v>1.280428571428571</v>
+        <v>1.223958122597613</v>
       </c>
       <c r="S31">
-        <v>1.342878787878788</v>
+        <v>1.280232184891932</v>
       </c>
       <c r="T31">
         <v>250.5759524821015</v>
@@ -2271,7 +2271,7 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2318,7 +2318,7 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L33">
         <v>8000</v>
@@ -2333,10 +2333,10 @@
         <v>623726.120738358</v>
       </c>
       <c r="R33">
-        <v>1.280428571428571</v>
+        <v>1.199420117463385</v>
       </c>
       <c r="S33">
-        <v>1.342878787878788</v>
+        <v>1.253114445055376</v>
       </c>
       <c r="T33">
         <v>77.96576509229475</v>
@@ -2377,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L34">
         <v>8000</v>
@@ -2398,10 +2398,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R34">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="S34">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="T34">
         <v>45.84581577519039</v>
@@ -2436,7 +2436,7 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L35">
         <v>8000</v>
@@ -2451,10 +2451,10 @@
         <v>356742.7347757882</v>
       </c>
       <c r="R35">
-        <v>1.280428571428571</v>
+        <v>1.302881541082627</v>
       </c>
       <c r="S35">
-        <v>1.342878787878788</v>
+        <v>1.367880580392128</v>
       </c>
       <c r="T35">
         <v>44.59284184697353</v>
@@ -2495,7 +2495,7 @@
         <v>70</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L36">
         <v>8000</v>
@@ -2516,10 +2516,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R36">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="S36">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="T36">
         <v>26.22170397210139</v>
@@ -2554,7 +2554,7 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L37">
         <v>8000</v>
@@ -2601,7 +2601,7 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L38">
         <v>8000</v>
@@ -2648,7 +2648,7 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L39">
         <v>8000</v>
@@ -2663,10 +2663,10 @@
         <v>646698.137479772</v>
       </c>
       <c r="R39">
-        <v>1.280428571428571</v>
+        <v>1.248232108317215</v>
       </c>
       <c r="S39">
-        <v>1.342878787878788</v>
+        <v>1.307120032773454</v>
       </c>
       <c r="T39">
         <v>80.83726718497149</v>
@@ -2707,7 +2707,7 @@
         <v>70</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -2728,10 +2728,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R40">
-        <v>1.800714285714286</v>
+        <v>1.726493341788205</v>
       </c>
       <c r="S40">
-        <v>1.963947368421052</v>
+        <v>1.874863921842289</v>
       </c>
       <c r="T40">
         <v>47.53433067378839</v>
@@ -2931,7 +2931,7 @@
         <v>50</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L44">
         <v>8000</v>
@@ -2984,7 +2984,7 @@
         <v>70</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L45">
         <v>8000</v>
@@ -3005,10 +3005,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R45">
-        <v>1.800714285714286</v>
+        <v>1.626775542720574</v>
       </c>
       <c r="S45">
-        <v>1.963947368421052</v>
+        <v>1.756382654173023</v>
       </c>
       <c r="T45">
         <v>9.248763282758299</v>
@@ -3043,7 +3043,7 @@
         <v>49</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L46">
         <v>8000</v>
@@ -3058,10 +3058,10 @@
         <v>125828.1731155048</v>
       </c>
       <c r="R46">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="S46">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="T46">
         <v>15.72852163943809</v>
@@ -3096,7 +3096,7 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L47">
         <v>8000</v>
@@ -3111,10 +3111,10 @@
         <v>1178282.823453274</v>
       </c>
       <c r="R47">
-        <v>1.280428571428571</v>
+        <v>1.233817681248088</v>
       </c>
       <c r="S47">
-        <v>1.342878787878788</v>
+        <v>1.291146001942376</v>
       </c>
       <c r="T47">
         <v>147.2853529316593</v>
@@ -3155,7 +3155,7 @@
         <v>70</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L48">
         <v>8000</v>
@@ -3176,10 +3176,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R48">
-        <v>1.800714285714286</v>
+        <v>1.694051767048283</v>
       </c>
       <c r="S48">
-        <v>1.963947368421052</v>
+        <v>1.836167304537999</v>
       </c>
       <c r="T48">
         <v>86.60746353088865</v>
@@ -3214,7 +3214,7 @@
         <v>50</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L49">
         <v>8000</v>
@@ -3597,7 +3597,7 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L56">
         <v>8000</v>
@@ -3618,10 +3618,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R56">
-        <v>1.800714285714286</v>
+        <v>1.92665172779809</v>
       </c>
       <c r="S56">
-        <v>1.963947368421052</v>
+        <v>2.116885095206829</v>
       </c>
       <c r="T56">
         <v>10.45519630532747</v>
@@ -3656,7 +3656,7 @@
         <v>49</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L57">
         <v>8000</v>
@@ -3671,10 +3671,10 @@
         <v>142241.5311586379</v>
       </c>
       <c r="R57">
-        <v>1.280428571428571</v>
+        <v>1.332696358504853</v>
       </c>
       <c r="S57">
-        <v>1.342878787878788</v>
+        <v>1.401162263046183</v>
       </c>
       <c r="T57">
         <v>17.78019139482974</v>
@@ -3709,7 +3709,7 @@
         <v>50</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L58">
         <v>8000</v>
